--- a/bh3/560525633367043420_2021-08-19_12-05-44.xlsx
+++ b/bh3/560525633367043420_2021-08-19_12-05-44.xlsx
@@ -515,20 +515,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5212660415</t>
+          <t>5217140564</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>零点一时刻</t>
+          <t>少水的鱼</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3崩子要50万粉了，这不来点什么？我想要点蓝蓝的闪闪发光的东西，没错就是那个，你懂的[doge]</t>
+          <t>反馈，可以把六次的上限放开，增加次数，不然每天六次我券再不够完全就是浪费时间[藏狐][藏狐]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -541,11 +541,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-08-20 19:33:26</t>
+          <t>2021-08-21 08:53:02</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -554,25 +554,33 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1581212309</t>
+          <t>368793883</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>“该帐号开放中”</t>
+        </is>
+      </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>湊-阿库娅</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,199 +590,211 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>5214878446</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天命枢机</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>我是准备献祭狄拉克了，毕竟识宝现在用折剑输出不比升迪迪弱，还省头发，a希也没练。。。</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5214878446</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2021-08-20 23:10:41</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>88377867</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>我永远喜欢古明地恋.jpg</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>嘉然今天吃什么</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>嘉然今天吃什么</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5212660415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>零点一时刻</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3崩子要50万粉了，这不来点什么？我想要点蓝蓝的闪闪发光的东西，没错就是那个，你懂的[doge]</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021-08-20 19:33:26</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1581212309</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>5206133929</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>晓晓的梦z</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>咋又看见您啦了[辣眼睛][辣眼睛]</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>5206133929</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>2021-08-20 01:09:56</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>570200145</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t xml:space="preserve">最后才发现，无论世界多喧嚣，你终究要坚守曾经的信念。
 </t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="N5" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>大会员</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5204079803</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>放不下很多</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>48</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>自己介绍自己。[吃瓜][吃瓜]</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-19 21:22:32</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>442623919</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5202434285</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>星殇晓渊yyyy</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>那是肯定不能给阿[辣眼睛]虽然能理解，但还是难受</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5202434285</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:27:22</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>199508116</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>一个喜欢动漫，音乐，鬼畜的00后</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -788,24 +808,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5202276005</t>
+          <t>5204079803</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4ZGCF13</t>
+          <t>放不下很多</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>我不喜欢崩坏三兔女郎艳舞</t>
+          <t>自己介绍自己。[吃瓜][吃瓜]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -814,11 +834,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-08-19 18:10:17</t>
+          <t>2021-08-19 21:22:32</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -827,21 +847,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>200319776</t>
+          <t>442623919</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>SMLZ AE PS PR我要喝酒</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -855,12 +871,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5201745356</t>
+          <t>5202434285</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>年度大刁民</t>
+          <t>星殇晓渊yyyy</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -868,7 +884,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>回复 @不出琴不改名 :今天的粉丝超过爱酱了吗[大笑]</t>
+          <t>那是肯定不能给阿[辣眼睛]虽然能理解，但还是难受</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -876,16 +892,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5201578817</t>
+          <t>5202434285</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-08-19 17:10:48</t>
+          <t>2021-08-19 18:27:22</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -894,37 +910,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4751874</t>
+          <t>199508116</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>该用户因发瑟图已被封禁！</t>
+          <t>一个喜欢动漫，音乐，鬼畜的00后</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -934,37 +942,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5201690542</t>
+          <t>5202276005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>玖玖NO-1</t>
+          <t>4ZGCF13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>雀氏[辣眼睛]</t>
+          <t>我不喜欢崩坏三兔女郎艳舞</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5201690542</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-08-19 17:05:05</t>
+          <t>2021-08-19 18:10:17</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -973,37 +981,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>502134744</t>
+          <t>200319776</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ch厨</t>
+          <t>SMLZ AE PS PR我要喝酒</t>
         </is>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>绯赤艾莉欧</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>绯赤艾莉欧</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1013,33 +1009,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>5201745356</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>年度大刁民</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>回复 @不出琴不改名 :今天的粉丝超过爱酱了吗[大笑]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>5201578817</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>不出琴不改名</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>这啥?</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5201578817</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-08-19 16:52:22</t>
+          <t>2021-08-19 17:10:48</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1052,29 +1048,37 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>172933857</t>
+          <t>4751874</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>不编辑个性签名</t>
+          <t>该用户因发瑟图已被封禁！</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1084,20 +1088,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5201488263</t>
+          <t>5201690542</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>薪火不尽传承不绝</t>
+          <t>玖玖NO-1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>意志换传承，不要非等人骂你再改</t>
+          <t>雀氏[辣眼睛]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1105,12 +1109,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5201690542</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-08-19 16:40:45</t>
+          <t>2021-08-19 17:05:05</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1123,7 +1127,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>345854003</t>
+          <t>502134744</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1133,7 +1137,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>我，就是这么懒</t>
+          <t>ch厨</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1141,15 +1145,19 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+          <t>绯赤艾莉欧</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>绯赤艾莉欧</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1159,20 +1167,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5201059694</t>
+          <t>5201578817</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ko-ra</t>
+          <t>不出琴不改名</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>听不见～[tv_鬼脸]（德莉莎.ver）</t>
+          <t>这啥?</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1180,16 +1188,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5201059694</t>
+          <t>5201578817</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-08-19 15:43:56</t>
+          <t>2021-08-19 16:52:22</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1198,7 +1206,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>294588772</t>
+          <t>172933857</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1206,25 +1214,21 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>不编辑个性签名</t>
+        </is>
+      </c>
       <c r="N11" t="n">
         <v>5</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>总之就是非常可爱</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>总之就是非常可爱</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,20 +1238,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5201021012</t>
+          <t>5201488263</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>紫韻秋蘭</t>
+          <t>薪火不尽传承不绝</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30抽武器没出，rnm  对这个游戏最后的一点不舍也被残酷的现实打碎了，这次真没动力再继续了，拜拜了三崩子，你是我第一个连续玩了3年的游戏，感谢你的陪伴，我会永远铭记你的[大哭]</t>
+          <t>意志换传承，不要非等人骂你再改</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1260,7 +1264,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-08-19 15:37:45</t>
+          <t>2021-08-19 16:40:45</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1273,17 +1277,21 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>291104801</t>
+          <t>345854003</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>我，就是这么懒</t>
+        </is>
+      </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1292,14 +1300,10 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>雪未来</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>雪未来</t>
-        </is>
-      </c>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1309,20 +1313,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5200778284</t>
+          <t>5201059694</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>ko-ra</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>听不见～[tv_鬼脸]（德莉莎.ver）</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1330,16 +1334,16 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5201059694</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-08-19 15:04:41</t>
+          <t>2021-08-19 15:43:56</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1348,7 +1352,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>294588772</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1362,11 +1366,19 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>总之就是非常可爱</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>总之就是非常可爱</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1376,20 +1388,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5200711000</t>
+          <t>5201021012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>灬楓灬</t>
+          <t>紫韻秋蘭</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>奥托讲堂没奥托这河里吗[脱单doge]</t>
+          <t>30抽武器没出，rnm  对这个游戏最后的一点不舍也被残酷的现实打碎了，这次真没动力再继续了，拜拜了三崩子，你是我第一个连续玩了3年的游戏，感谢你的陪伴，我会永远铭记你的[大哭]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1402,7 +1414,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-08-19 14:55:08</t>
+          <t>2021-08-19 15:37:45</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1410,12 +1422,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1611717</t>
+          <t>291104801</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1425,19 +1437,23 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>公主连结可可萝</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+          <t>雪未来</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>雪未来</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1447,20 +1463,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5200619314</t>
+          <t>5200778284</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>裂魂子魄</t>
+          <t>大师傅x</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>啊这，懒得肝，抽了五十发就毕业了[doge]</t>
+          <t>爬</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1468,16 +1484,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5200619314</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-08-19 14:42:57</t>
+          <t>2021-08-19 15:04:41</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1486,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>39173935</t>
+          <t>20568348</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1494,29 +1510,17 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>我一点都不懒，只是不知道写什么。</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>12周年夏日狂欢</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>良辰美景·不问天</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1526,20 +1530,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5200505054</t>
+          <t>5200711000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>通渠大队贾队长</t>
+          <t>灬楓灬</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>二级号带节奏哈哈哈哈哈哈哈哈哈哈哈</t>
+          <t>奥托讲堂没奥托这河里吗[脱单doge]</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1547,12 +1551,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5200505054</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-08-19 14:26:05</t>
+          <t>2021-08-19 14:55:08</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1560,12 +1564,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>180756645</t>
+          <t>1611717</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1573,13 +1577,9 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>玩游戏嘛，最重要的是开心</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1588,14 +1588,10 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+          <t>公主连结可可萝</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1605,20 +1601,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5200496202</t>
+          <t>5200619314</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>通渠大队贾队长</t>
+          <t>裂魂子魄</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>你太损了吧草</t>
+          <t>啊这，懒得肝，抽了五十发就毕业了[doge]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1626,12 +1622,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5200496202</t>
+          <t>5200619314</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-08-19 14:24:48</t>
+          <t>2021-08-19 14:42:57</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1644,17 +1640,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>180756645</t>
+          <t>39173935</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>玩游戏嘛，最重要的是开心</t>
+          <t>我一点都不懒，只是不知道写什么。</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1667,12 +1663,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>原神</t>
+          <t>12周年夏日狂欢</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>原神</t>
+          <t>良辰美景·不问天</t>
         </is>
       </c>
     </row>
@@ -1684,20 +1680,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5200329204</t>
+          <t>5200505054</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>流云千仞</t>
+          <t>通渠大队贾队长</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>回复 @圣诞颂歌1st :😆这不是米桑自己的文案？</t>
+          <t>二级号带节奏哈哈哈哈哈哈哈哈哈哈哈</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1705,12 +1701,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5200170085</t>
+          <t>5200505054</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-08-19 14:04:01</t>
+          <t>2021-08-19 14:26:05</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1723,25 +1719,37 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1748061</t>
+          <t>180756645</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>玩游戏嘛，最重要的是开心</t>
+        </is>
+      </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1751,366 +1759,370 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>5200496202</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>通渠大队贾队长</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>你太损了吧草</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5200496202</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2021-08-19 14:24:48</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>180756645</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>玩游戏嘛，最重要的是开心</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5200329204</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>流云千仞</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>回复 @圣诞颂歌1st :😆这不是米桑自己的文案？</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5200170085</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2021-08-19 14:04:01</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1748061</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>5200298994</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>伊莉雷咕包</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>╮(￣▽￣)╭</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>5200298994</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>2021-08-19 13:59:33</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>23832246</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>查成分的真无聊
 也许只是想给我一个帽子</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="N21" t="n">
         <v>5</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>5200211539</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>基-情-四-射-的-弹-幕</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>42</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>十一点上线就抽了一万水，一件up内都没有，我甚至都怀疑是我抽早了以致于爱酱还没来得及把装备放进池子里[藏狐]</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>2021-08-19 13:46:54</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>100582580</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>丢掉幻想，准备斗争</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="N22" t="n">
         <v>6</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>至尊戒</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>5200170085</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>圣诞颂歌1st</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>我又来举报了[崩坏3_饿了]</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>5200170085</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>2021-08-19 13:40:51</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>523709844</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>为世界上所有的美好而战！
 mzr的死敌</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>5200098339</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>薇尔莉特_伊芙加登丶</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>回复 @芙兰朵露爱吃西瓜 :我还是嫌慢了，安娜那个版本材料充足的话，一天就换3件套了[笑哭]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5199444918</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:33:05</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>130827600</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>꧁꫞薇尔莉特·伊芙加登꫞꧂</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>5</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>星座系列：狮子座</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5200059757</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>高--实在是高</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>41</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>👴要时雨绮罗！</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:28:25</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>121884375</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2120,225 +2132,217 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>5200098339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>薇尔莉特_伊芙加登丶</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>回复 @芙兰朵露爱吃西瓜 :我还是嫌慢了，安娜那个版本材料充足的话，一天就换3件套了[笑哭]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5199444918</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2021-08-19 13:33:05</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>130827600</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>꧁꫞薇尔莉特·伊芙加登꫞꧂</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>星座系列：狮子座</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5200059757</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>高--实在是高</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>👴要时雨绮罗！</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2021-08-19 13:28:25</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>121884375</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>5200048823</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Anthonymous七</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>40</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>意志换传承，不要给脸不要脸，你每一次无视玩家诉求都是在给下一次大节奏添柴火。
 意志换传承只是玩家本身有的物资之间转换都不肯给，那你搞什么可肝</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>2021-08-19 13:27:19</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>14967447</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t xml:space="preserve">yang2515891235@163.com
 Twitter@Anthrop28243200
 </t>
         </is>
       </c>
-      <c r="N24" t="n">
-        <v>5</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>物述有栖</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>5199957524</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>竹夭--</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>主教摆烂了是吧[傲娇]</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>5199957524</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:16:10</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>187471046</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>花开伊吕波，清莲留此生。</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>神楽Mea</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>神楽Mea</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>5199891698</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>づInoriづ</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>额....虽然。但，感觉运气还可以。没怎么歪</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>5199891698</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:08:06</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>89648917</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>只要你相信自己，你就是王，不管是多么的错误的王，只要你有觉悟，迈出属于你自己的那一步，你便是主角。因为，你已经具备王的一切潜质了，不是吗？</t>
-        </is>
-      </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>物述有栖</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2348,20 +2352,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5199890055</t>
+          <t>5199957524</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>づInoriづ</t>
+          <t>竹夭--</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>氪金就能解决[脱单doge]</t>
+          <t>主教摆烂了是吧[傲娇]</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2369,16 +2373,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5199890055</t>
+          <t>5199957524</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-08-19 13:07:29</t>
+          <t>2021-08-19 13:16:10</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2387,7 +2391,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>89648917</t>
+          <t>187471046</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2397,7 +2401,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>只要你相信自己，你就是王，不管是多么的错误的王，只要你有觉悟，迈出属于你自己的那一步，你便是主角。因为，你已经具备王的一切潜质了，不是吗？</t>
+          <t>花开伊吕波，清莲留此生。</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2405,11 +2409,19 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>神楽Mea</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>神楽Mea</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2419,20 +2431,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5199857103</t>
+          <t>5199891698</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>寂寞灬冰丶苍</t>
+          <t>づInoriづ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>众所周知，奥托讲堂没有奥托[doge][doge][doge]</t>
+          <t>额....虽然。但，感觉运气还可以。没怎么歪</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2440,12 +2452,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199891698</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-08-19 13:04:35</t>
+          <t>2021-08-19 13:08:06</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2458,7 +2470,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>214410638</t>
+          <t>89648917</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2468,7 +2480,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>懒懒懒</t>
+          <t>只要你相信自己，你就是王，不管是多么的错误的王，只要你有觉悟，迈出属于你自己的那一步，你便是主角。因为，你已经具备王的一切潜质了，不是吗？</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2479,16 +2491,8 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>泠鸢yousa登门喜鹊</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>泠鸢登门喜鹊</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2498,20 +2502,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5199828586</t>
+          <t>5199890055</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天城级战列巡洋舰首舰</t>
+          <t>づInoriづ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>配音这么好听的声音怎么摊上这么个文案 不会是直接把技能文本搬过来了吧</t>
+          <t>氪金就能解决[脱单doge]</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2519,12 +2523,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199890055</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-08-19 13:01:33</t>
+          <t>2021-08-19 13:07:29</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2537,7 +2541,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23244354</t>
+          <t>89648917</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2545,7 +2549,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>只要你相信自己，你就是王，不管是多么的错误的王，只要你有觉悟，迈出属于你自己的那一步，你便是主角。因为，你已经具备王的一切潜质了，不是吗？</t>
+        </is>
+      </c>
       <c r="N29" t="n">
         <v>5</v>
       </c>
@@ -2554,11 +2562,7 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>碧蓝航线</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2569,20 +2573,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5199816003</t>
+          <t>5199857103</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>沙寻Quartz</t>
+          <t>寂寞灬冰丶苍</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>回复 @混沌-恶 :md燃料5k多，g4结晶只能换60个，吐了，顺带一提为了保狄拉克我是从沙皇开始合的[傲娇]</t>
+          <t>众所周知，奥托讲堂没有奥托[doge][doge][doge]</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2590,12 +2594,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5199444918</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-08-19 13:00:08</t>
+          <t>2021-08-19 13:04:35</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2603,12 +2607,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>38462369</t>
+          <t>214410638</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2616,7 +2620,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>懒懒懒</t>
+        </is>
+      </c>
       <c r="N30" t="n">
         <v>5</v>
       </c>
@@ -2625,8 +2633,16 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>泠鸢yousa登门喜鹊</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>泠鸢登门喜鹊</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2636,20 +2652,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5199804502</t>
+          <t>5199828586</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>瞬影留痕</t>
+          <t>天城级战列巡洋舰首舰</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>全新s级女武神爱莉希亚</t>
+          <t>配音这么好听的声音怎么摊上这么个文案 不会是直接把技能文本搬过来了吧</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2662,7 +2678,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-08-19 12:59:41</t>
+          <t>2021-08-19 13:01:33</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2670,12 +2686,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>476170436</t>
+          <t>23244354</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2683,29 +2699,21 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>无论生死契阔，永世与子偕老</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>碧蓝航线</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2715,12 +2723,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5199802045</t>
+          <t>5199816003</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>无聊难受人</t>
+          <t>沙寻Quartz</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2728,7 +2736,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>落魄了，家人们。</t>
+          <t>回复 @混沌-恶 :md燃料5k多，g4结晶只能换60个，吐了，顺带一提为了保狄拉克我是从沙皇开始合的[傲娇]</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2736,12 +2744,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5199802045</t>
+          <t>5199444918</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-08-19 12:58:57</t>
+          <t>2021-08-19 13:00:08</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2754,7 +2762,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>479969163</t>
+          <t>38462369</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2764,23 +2772,15 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2790,20 +2790,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5199810394</t>
+          <t>5199804502</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>极夜灬幻想</t>
+          <t>瞬影留痕</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>粉色妖精飞鱼丸[妙啊][妙啊]</t>
+          <t>全新s级女武神爱莉希亚</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2816,20 +2816,20 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-08-19 12:58:55</t>
+          <t>2021-08-19 12:59:41</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>42835452</t>
+          <t>476170436</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2839,19 +2839,27 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>QQ飞车开服玩家，崩坏3开服玩家，原神开服玩家</t>
+          <t>无论生死契阔，永世与子偕老</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2861,20 +2869,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5199735767</t>
+          <t>5199802045</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>基-情-四-射-的-弹-幕</t>
+          <t>无聊难受人</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>这就是你的自我介绍吗</t>
+          <t>落魄了，家人们。</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2882,12 +2890,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5199735767</t>
+          <t>5199802045</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-08-19 12:51:12</t>
+          <t>2021-08-19 12:58:57</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2900,33 +2908,33 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>100582580</t>
+          <t>479969163</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>丢掉幻想，准备斗争</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>至尊戒</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2936,20 +2944,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5199735165</t>
+          <t>5199810394</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>减零-</t>
+          <t>极夜灬幻想</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>意志换传承！求求了</t>
+          <t>粉色妖精飞鱼丸[妙啊][妙啊]</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2962,11 +2970,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-08-19 12:51:02</t>
+          <t>2021-08-19 12:58:55</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2975,23 +2983,27 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>180336215</t>
+          <t>42835452</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>。。。</t>
+          <t>QQ飞车开服玩家，崩坏3开服玩家，原神开服玩家</t>
         </is>
       </c>
       <c r="N35" t="n">
         <v>5</v>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
     </row>
@@ -3003,12 +3015,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5199698488</t>
+          <t>5199735767</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>苓思poi</t>
+          <t>基-情-四-射-的-弹-幕</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -3016,7 +3028,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>扩充十连歪了不听正常吗[tv_疑问]</t>
+          <t>这就是你的自我介绍吗</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3024,12 +3036,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5199698488</t>
+          <t>5199735767</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-08-19 12:47:37</t>
+          <t>2021-08-19 12:51:12</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3042,17 +3054,21 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>38921755</t>
+          <t>100582580</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>丢掉幻想，准备斗争</t>
+        </is>
+      </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3061,7 +3077,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>异常生物</t>
+          <t>至尊戒</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -3074,18 +3090,156 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>5199735165</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>减零-</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>意志换传承！求求了</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:51:02</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>180336215</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>。。。</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5199698488</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>苓思poi</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>扩充十连歪了不听正常吗[tv_疑问]</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5199698488</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:47:37</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>38921755</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>异常生物</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>5199642146</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>NatsuiroFubuki</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>33</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>"符华不可以成为律者"
 如果这样子的人物她成为了律者她被崩坏侵蚀了
@@ -3094,136 +3248,136 @@
 人设能值几个钱，羊大爷，快来玩啊[给心心][给心心][给心心]</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>2021-08-19 12:41:33</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>395941720</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>2</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>5199642028</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>芙兰朵露爱吃西瓜</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>-1</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>回复 @混沌-恶 :嘿嘿，老咸鱼不缺这种东西，只缺g4[tv_doge][tv_doge]</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>5199444918</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>2021-08-19 12:41:30</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>23087653</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>！该用户已被封禁</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>5</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>5199637506</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>NatsuiroFubuki</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>32</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>用兔耳和运气赢回尊严和未来
 Win back dignity and future with rabbit ears and luck
@@ -3231,143 +3385,17 @@
 토끼 귀와 운으로 존엄과 미래를 되찾다[打call][打call]</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F41" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>2021-08-19 12:41:29</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>395941720</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>5199641717</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>NatsuiroFubuki</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>31</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>“為了世界上所有的dollar而戰”[星星眼][星星眼][星星眼]</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:41:24</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>395941720</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>5199530259</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>油画批发商V</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>我也是，一个十连出了[笑哭]</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>5199530259</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:29:05</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3380,37 +3408,21 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>108728104</t>
+          <t>395941720</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>夜之城油画批发，5€一幅</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>5</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>魔法学院</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>魔法学院</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3420,24 +3432,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5199494736</t>
+          <t>5199641717</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>风葬秋瞑</t>
+          <t>NatsuiroFubuki</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>奥托搞事去了[妙啊]</t>
+          <t>“為了世界上所有的dollar而戰”[星星眼][星星眼][星星眼]</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-08-19 12:26:26</t>
+          <t>2021-08-19 12:41:24</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3459,29 +3471,21 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2255347</t>
+          <t>395941720</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>6</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2021拜年纪</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3491,12 +3495,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5199488754</t>
+          <t>5199530259</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>混沌-恶</t>
+          <t>油画批发商V</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3504,7 +3508,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>回复 @芙兰朵露爱吃西瓜 :不算迪的话，3300以太燃料和600红空间透镜警告</t>
+          <t>我也是，一个十连出了[笑哭]</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3512,16 +3516,16 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5199444918</t>
+          <t>5199530259</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-08-19 12:25:38</t>
+          <t>2021-08-19 12:29:05</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3530,21 +3534,21 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20827189</t>
+          <t>108728104</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>恶灵召唤</t>
+          <t>夜之城油画批发，5€一幅</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3553,12 +3557,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>圣诞节快乐</t>
+          <t>魔法学院</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>星座系列：天秤座</t>
+          <t>魔法学院</t>
         </is>
       </c>
     </row>
@@ -3570,20 +3574,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5199456776</t>
+          <t>5199494736</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ReAliaZe</t>
+          <t>风葬秋瞑</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>上线直接领了3000氵，这波啊，这波是直接反向洗地啊！</t>
+          <t>奥托搞事去了[妙啊]</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3596,46 +3600,42 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-08-19 12:21:48</t>
+          <t>2021-08-19 12:26:26</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>30858690</t>
+          <t>2255347</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>人一生，我们必须放下所有怨念，抛下所有伤痕，放弃所有悲伤，仰头面对阳光，扯开嘴角，你会发现这个世界其实充满着温暖。</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>梦塔·雪谜城</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3645,33 +3645,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>5199488754</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>混沌-恶</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>回复 @芙兰朵露爱吃西瓜 :不算迪的话，3300以太燃料和600红空间透镜警告</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>5199444918</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>芙兰朵露爱吃西瓜</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>材料充足最快可以38天出3件套[OK]</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>5199444918</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-08-19 12:21:06</t>
+          <t>2021-08-19 12:25:38</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>23087653</t>
+          <t>20827189</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3694,19 +3694,27 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>！该用户已被封禁</t>
+          <t>恶灵召唤</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>圣诞节快乐</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>星座系列：天秤座</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3716,46 +3724,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5199430686</t>
+          <t>5199456776</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>颜晔yo</t>
+          <t>ReAliaZe</t>
         </is>
       </c>
       <c r="D46" t="n">
+        <v>29</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>上线直接领了3000氵，这波啊，这波是直接反向洗地啊！</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:21:48</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>5199430686</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:18:45</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>413385408</t>
+          <t>30858690</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3763,7 +3771,11 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>人一生，我们必须放下所有怨念，抛下所有伤痕，放弃所有悲伤，仰头面对阳光，扯开嘴角，你会发现这个世界其实充满着温暖。</t>
+        </is>
+      </c>
       <c r="N46" t="n">
         <v>5</v>
       </c>
@@ -3772,7 +3784,11 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>梦塔·雪谜城</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -3783,54 +3799,192 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>5199444918</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>芙兰朵露爱吃西瓜</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>材料充足最快可以38天出3件套[OK]</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>5199444918</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:21:06</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>23087653</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>！该用户已被封禁</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5199430686</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>颜晔yo</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5199430686</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:18:45</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>413385408</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>5199417953</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>开心的琳芙斯</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>28</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>我喜欢你[约战_哈哈哈]</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>2021-08-19 12:17:57</t>
         </is>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>20918170</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>执手听音裙流香，弦断魂销，芳心何伤？
 笑靥花落明眸动，残梦惊醒，因何彷徨？
@@ -3838,158 +3992,12 @@
 风翩柳絮月容黯，香肩微寒，叶落凄凉。</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="N49" t="n">
         <v>6</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5199414752</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>永远的一行瑠璃</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>27</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>联机军备40黑核换一个崩坏结晶</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:31</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>275198515</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
-        <v>4</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>5199391809</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>手残党TNT</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>26</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>奥托讲堂，奥托呢？</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:40</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>351356158</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>该账号封禁中</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>大会员</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4011,20 +4019,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5199391453</t>
+          <t>5199414752</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>枫慕言</t>
+          <t>永远的一行瑠璃</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>我回来了，出了把刀🔪🔪🔪🔪🔪🔪🔪</t>
+          <t>联机军备40黑核换一个崩坏结晶</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4032,16 +4040,16 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5199391453</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-08-19 12:14:34</t>
+          <t>2021-08-19 12:17:31</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4050,7 +4058,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>348586288</t>
+          <t>275198515</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4058,11 +4066,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>漫步在没有你的雨夜，弄湿了1974年的老北京布鞋。</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>4</v>
       </c>
@@ -4071,16 +4075,8 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>hanser</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>hanser</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4090,20 +4086,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5199385070</t>
+          <t>5199391809</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>柒夏栖霞</t>
+          <t>手残党TNT</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>真实，登录器都是成套的[崩坏3_纠结]</t>
+          <t>奥托讲堂，奥托呢？</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4111,12 +4107,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5199385070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-08-19 12:14:07</t>
+          <t>2021-08-19 12:14:40</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4129,7 +4125,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>296921774</t>
+          <t>351356158</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4139,7 +4135,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>我思，故我在。</t>
+          <t>该账号封禁中</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -4150,8 +4146,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4161,20 +4165,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5199374441</t>
+          <t>5199391453</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>所有有有有</t>
+          <t>枫慕言</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>绯玉丸就你话多，这就把你炖了</t>
+          <t>我回来了，出了把刀🔪🔪🔪🔪🔪🔪🔪</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4182,12 +4186,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199391453</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-08-19 12:13:53</t>
+          <t>2021-08-19 12:14:34</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4200,7 +4204,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>351577060</t>
+          <t>348586288</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4210,19 +4214,27 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>这个人臭不要脸，什么都没写₍₍ (̨̡ ‾᷄ᗣ‾᷅ )̧̢ ₎₎</t>
+          <t>漫步在没有你的雨夜，弄湿了1974年的老北京布鞋。</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>hanser</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>hanser</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4232,37 +4244,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5199366837</t>
+          <t>5199385070</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>混沌-恶</t>
+          <t>柒夏栖霞</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>红莲无限升降机，我现在身上就160的传承意志，人物或许还能肝肝，但是新出了个每天8个要140一个圣痕的G4结晶，没迪拉克的那些人还要每天12个200一件的迪拉克，更别提所需数量大的吓人的以太燃素和红色空间透镜，怎么肝你们能不能列个表出来？总结就是不想给[辣眼睛]</t>
+          <t>真实，登录器都是成套的[崩坏3_纠结]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199385070</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-08-19 12:11:43</t>
+          <t>2021-08-19 12:14:07</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4271,37 +4283,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>20827189</t>
+          <t>296921774</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>恶灵召唤</t>
+          <t>我思，故我在。</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>圣诞节快乐</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>星座系列：天秤座</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4311,20 +4315,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5199349413</t>
+          <t>5199374441</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>五河あ七罪</t>
+          <t>所有有有有</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>奥托讲堂没有奥托 这河里嘛？</t>
+          <t>绯玉丸就你话多，这就把你炖了</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4337,11 +4341,11 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-08-19 12:11:00</t>
+          <t>2021-08-19 12:13:53</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4350,7 +4354,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28801550</t>
+          <t>351577060</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4360,7 +4364,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>自学3D软件中 专业是建筑方面 但意向为3D人物建模</t>
+          <t>这个人臭不要脸，什么都没写₍₍ (̨̡ ‾᷄ᗣ‾᷅ )̧̢ ₎₎</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -4368,19 +4372,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>良辰美景·不问天</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>良辰美景·不问天</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4390,37 +4386,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5199355936</t>
+          <t>5199366837</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>一罐毒可乐</t>
+          <t>混沌-恶</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>主教摆烂了，你好好的解说正事不干，老惦记那破虚数之树干嘛[傲娇]</t>
+          <t>红莲无限升降机，我现在身上就160的传承意志，人物或许还能肝肝，但是新出了个每天8个要140一个圣痕的G4结晶，没迪拉克的那些人还要每天12个200一件的迪拉克，更别提所需数量大的吓人的以太燃素和红色空间透镜，怎么肝你们能不能列个表出来？总结就是不想给[辣眼睛]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5199355936</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-08-19 12:10:51</t>
+          <t>2021-08-19 12:11:43</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4429,7 +4425,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2024496</t>
+          <t>20827189</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4437,9 +4433,13 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>恶灵召唤</t>
+        </is>
+      </c>
       <c r="N55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4448,12 +4448,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>圣诞节快乐</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>星座系列：天秤座</t>
         </is>
       </c>
     </row>
@@ -4465,20 +4465,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5199336716</t>
+          <t>5199349413</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>wsscj1</t>
+          <t>五河あ七罪</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>套马的汉子[藏狐]</t>
+          <t>奥托讲堂没有奥托 这河里嘛？</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-08-19 12:08:46</t>
+          <t>2021-08-19 12:11:00</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4504,25 +4504,37 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>6480343</t>
+          <t>28801550</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>自学3D软件中 专业是建筑方面 但意向为3D人物建模</t>
+        </is>
+      </c>
       <c r="N56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>良辰美景·不问天</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>良辰美景·不问天</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4532,37 +4544,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5199328298</t>
+          <t>5199355936</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明日香世界第一可爱</t>
+          <t>一罐毒可乐</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>三蹦子把渠道服米游社扫码登陆pc提上日程好不好，宝服只玩pc端每个版本都要更新手机端，还得留个应用宝</t>
+          <t>主教摆烂了，你好好的解说正事不干，老惦记那破虚数之树干嘛[傲娇]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199355936</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-08-19 12:08:06</t>
+          <t>2021-08-19 12:10:51</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4571,25 +4583,33 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>34218263</t>
+          <t>2024496</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4599,20 +4619,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5199328010</t>
+          <t>5199336716</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>未竞之物</t>
+          <t>wsscj1</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>奥    托    讲   堂[doge][doge][doge]</t>
+          <t>套马的汉子[藏狐]</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4625,7 +4645,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-08-19 12:08:00</t>
+          <t>2021-08-19 12:08:46</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4638,330 +4658,310 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>6480343</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5199328298</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>明日香世界第一可爱</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>21</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>三蹦子把渠道服米游社扫码登陆pc提上日程好不好，宝服只玩pc端每个版本都要更新手机端，还得留个应用宝</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:08:06</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>34218263</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5199328010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>未竞之物</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>奥    托    讲   堂[doge][doge][doge]</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:08:00</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
           <t>382958681</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>我是他的血未能造就成人之物，而他是我的罪未能征服之人
 我哀悼她的血，但你却将她融为灰烬
 请原谅我对生命仍有敬意</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="N60" t="n">
         <v>5</v>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>5199319440</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>未竞之物</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>奥    托    讲   堂</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>2021-08-19 12:07:50</t>
         </is>
       </c>
-      <c r="I59" t="n">
+      <c r="I61" t="n">
         <v>10</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>382958681</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>我是他的血未能造就成人之物，而他是我的罪未能征服之人
 我哀悼她的血，但你却将她融为灰烬
 请原谅我对生命仍有敬意</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="N61" t="n">
         <v>5</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>5199323271</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>星月七季</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D62" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>你甚至可以在奥托讲堂听不到奥托的声音
 （话说现在女武神都开始自己讲解自己的技能了吗？奥托失业警告[doge]）</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>2021-08-19 12:07:46</t>
         </is>
       </c>
-      <c r="I60" t="n">
+      <c r="I62" t="n">
         <v>17</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>38703460</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>6</v>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>异常生物</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>5199318440</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>我-木得名字</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>妖精小姐的pg[脱单doge]</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>5199318440</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:31</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>359026614</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>命中的命中</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>4</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>公主连结凯露</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>5199321335</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>万羽晓</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>16</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>40抽没有武器，圣痕满了[tv_笑哭]，不用肝了</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:13</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>97730227</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>折れた最強の翼は   恋の炎で不死鳥となって羽ばたく</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>5</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4971,20 +4971,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5199325709</t>
+          <t>5199318440</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TSHYRS</t>
+          <t>我-木得名字</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>不还我爱莉的pg，那就把飞鱼丸的pg交出来[阴险]</t>
+          <t>妖精小姐的pg[脱单doge]</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4992,16 +4992,16 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199318440</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-08-19 12:07:12</t>
+          <t>2021-08-19 12:07:31</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>359195773</t>
+          <t>359026614</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5020,18 +5020,22 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>ヾ(❀╹◡╹)ﾉﾞ❀~</t>
+          <t>命中的命中</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>公主连结凯露</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -5042,24 +5046,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5199317285</t>
+          <t>5199321335</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>此生无所为</t>
+          <t>万羽晓</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>报告，十连歪了个哥伦布，解决一下？</t>
+          <t>40抽没有武器，圣痕满了[tv_笑哭]，不用肝了</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5068,7 +5072,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-08-19 12:07:10</t>
+          <t>2021-08-19 12:07:13</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5081,17 +5085,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>160193619</t>
+          <t>97730227</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>我喜欢小八，但仅限于小八</t>
+          <t>折れた最強の翼は   恋の炎で不死鳥となって羽ばたく</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -5104,12 +5108,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Yae_Sakura</t>
+          <t>原神</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>初音未来13周年</t>
+          <t>原神</t>
         </is>
       </c>
     </row>
@@ -5121,20 +5125,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5199325538</t>
+          <t>5199325709</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>指针影子</t>
+          <t>TSHYRS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
+          <t>不还我爱莉的pg，那就把飞鱼丸的pg交出来[阴险]</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5147,11 +5151,11 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-08-19 12:07:08</t>
+          <t>2021-08-19 12:07:12</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5160,37 +5164,29 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>384999</t>
+          <t>359195773</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
+          <t>ヾ(❀╹◡╹)ﾉﾞ❀~</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5200,24 +5196,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5199320680</t>
+          <t>5199317285</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>待故之人</t>
+          <t>此生无所为</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BV1kL411J7Nb三房我的三房 嘿嘿嘿 ……[喜欢]</t>
+          <t>报告，十连歪了个哥伦布，解决一下？</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -5226,11 +5222,11 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-08-19 12:07:02</t>
+          <t>2021-08-19 12:07:10</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5239,17 +5235,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>362113231</t>
+          <t>160193619</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>别来查成分了，这里啥都没有</t>
+          <t>我喜欢小八，但仅限于小八</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -5257,17 +5253,17 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>夏诺雅</t>
+          <t>Yae_Sakura</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>夏诺雅</t>
+          <t>初音未来13周年</t>
         </is>
       </c>
     </row>
@@ -5279,24 +5275,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5199316870</t>
+          <t>5199325538</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>年度大刁民</t>
+          <t>指针影子</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱！</t>
+          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5305,11 +5301,11 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-08-19 12:07:02</t>
+          <t>2021-08-19 12:07:08</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5318,7 +5314,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4751874</t>
+          <t>384999</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5328,7 +5324,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>该用户因发瑟图已被封禁！</t>
+          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -5336,17 +5332,17 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>原神</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>原神</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -5358,20 +5354,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5199320597</t>
+          <t>5199320680</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>爱吃糖的坂坂</t>
+          <t>待故之人</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>爬虚数之树去了[崩坏3_路过]</t>
+          <t>BV1kL411J7Nb三房我的三房 嘿嘿嘿 ……[喜欢]</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5379,16 +5375,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5199320597</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-08-19 12:07:01</t>
+          <t>2021-08-19 12:07:02</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5397,29 +5393,37 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>349526955</t>
+          <t>362113231</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>别来查成分了，这里啥都没有</t>
+        </is>
+      </c>
       <c r="N68" t="n">
         <v>5</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>实验品家庭</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr"/>
+          <t>夏诺雅</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>夏诺雅</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5429,24 +5433,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5199320065</t>
+          <t>5199316870</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>yuki-i-i</t>
+          <t>年度大刁民</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>抽错池子结果出了[笑哭]</t>
+          <t>今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱，今超爱！</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5455,11 +5459,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:52</t>
+          <t>2021-08-19 12:07:02</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5468,7 +5472,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>352418310</t>
+          <t>4751874</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5478,25 +5482,25 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>工具号</t>
+          <t>该用户因发瑟图已被封禁！</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>实验品家庭</t>
+          <t>原神</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>进击的冰糖</t>
+          <t>原神</t>
         </is>
       </c>
     </row>
@@ -5508,20 +5512,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5199314951</t>
+          <t>5199320597</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>风鸣雨淞</t>
+          <t>爱吃糖的坂坂</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>奥托讲堂没奥托[笑哭][笑哭]</t>
+          <t>爬虚数之树去了[崩坏3_路过]</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5529,16 +5533,16 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5199320597</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:49</t>
+          <t>2021-08-19 12:07:01</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5547,33 +5551,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>406217572</t>
+          <t>349526955</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>实验品家庭</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5583,24 +5583,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5199315561</t>
+          <t>5199320065</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>小八当然是兔子</t>
+          <t>yuki-i-i</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>不邂，谢谢[doge]</t>
+          <t>抽错池子结果出了[笑哭]</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -5609,11 +5609,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:37</t>
+          <t>2021-08-19 12:06:52</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5622,29 +5622,37 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>347053575</t>
+          <t>352418310</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>好！</t>
+          <t>工具号</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>实验品家庭</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>进击的冰糖</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5654,219 +5662,223 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>5199314951</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>风鸣雨淞</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>9</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>奥托讲堂没奥托[笑哭][笑哭]</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:06:49</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>406217572</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5199315561</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>小八当然是兔子</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>不邂，谢谢[doge]</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:06:37</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>347053575</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>好！</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>5199314142</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>一行瑠璃卡哇伊</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D74" t="n">
         <v>1</v>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>去领失业救济金了[吃瓜]</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>5199314142</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>2021-08-19 12:06:36</t>
         </is>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>490776460</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t xml:space="preserve">拿最丑恶的思想揣度人性，用最友善的态度对待他人。
 </t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="N74" t="n">
         <v>4</v>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>5199308930</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>真的真的好无聊啊</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>7</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>奥托失业</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:35</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>157465913</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
-        <v>5</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>5199314001</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>改名能中锤子的奖</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>6</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>忘了更新了[大哭]</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:33</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>8830952</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>6</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5876,20 +5888,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5199313249</t>
+          <t>5199308930</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大萝卜嘞</t>
+          <t>真的真的好无聊啊</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>奥托你回来了奥托[喜欢]</t>
+          <t>奥托失业</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5902,7 +5914,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:19</t>
+          <t>2021-08-19 12:06:35</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5915,7 +5927,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>38136138</t>
+          <t>157465913</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5929,11 +5941,19 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5943,24 +5963,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5199308097</t>
+          <t>5199314001</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>我-木得名字</t>
+          <t>改名能中锤子的奖</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[tv_doge][tv_doge][tv_doge]送我上去</t>
+          <t>忘了更新了[大哭]</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5969,11 +5989,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:17</t>
+          <t>2021-08-19 12:06:33</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5982,7 +6002,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>359026614</t>
+          <t>8830952</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5990,24 +6010,16 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>命中的命中</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>公主连结凯露</t>
-        </is>
-      </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -6018,20 +6030,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5199313057</t>
+          <t>5199313249</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>屑奥多</t>
+          <t>大萝卜嘞</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>奥托我的奥托[委屈]</t>
+          <t>奥托你回来了奥托[喜欢]</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6044,11 +6056,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:16</t>
+          <t>2021-08-19 12:06:19</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6057,7 +6069,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>354049565</t>
+          <t>38136138</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6065,29 +6077,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>md这有什么好写的</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6097,24 +6097,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5199304229</t>
+          <t>5199308097</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>梦醒时分却不见你</t>
+          <t>我-木得名字</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>屁股，屁股，还TM的是屁股</t>
+          <t>[tv_doge][tv_doge][tv_doge]送我上去</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-08-19 12:06:12</t>
+          <t>2021-08-19 12:06:17</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>115479472</t>
+          <t>359026614</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>我见众生皆无意,唯独遇你动了情</t>
+          <t>命中的命中</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>汉化日记</t>
+          <t>公主连结凯露</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
@@ -6172,38 +6172,38 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5199303699</t>
+          <t>5199313057</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>希儿・芙乐艾</t>
+          <t>屑奥多</t>
         </is>
       </c>
       <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>奥托我的奥托[委屈]</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:06:16</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>奥托失踪了[白神遥_阿巴阿巴][白神遥_阿巴阿巴][白神遥_阿巴阿巴]</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>5</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:02</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>187</v>
-      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>未知</t>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>336141820</t>
+          <t>354049565</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>蝶梦.</t>
+          <t>md这有什么好写的</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -6234,10 +6234,164 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5199304229</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>梦醒时分却不见你</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>屁股，屁股，还TM的是屁股</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:06:12</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>115479472</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>我见众生皆无意,唯独遇你动了情</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>汉化日记</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5199303699</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>希儿・芙乐艾</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>奥托失踪了[白神遥_阿巴阿巴][白神遥_阿巴阿巴][白神遥_阿巴阿巴]</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2021-08-19 12:06:02</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>190</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>336141820</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>蝶梦.</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
           <t>绀海</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>星尘</t>
         </is>

--- a/bh3/560525633367043420_2021-08-19_12-05-44.xlsx
+++ b/bh3/560525633367043420_2021-08-19_12-05-44.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-21 08:53:02</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44429.37016203703</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -614,10 +628,8 @@
           <t>5214878446</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-20 23:10:41</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44428.96575231481</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-20 19:33:26</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44428.81488425926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>5206133929</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-20 01:09:56</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44428.04856481482</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-19 21:22:32</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44427.89064814815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -895,10 +901,8 @@
           <t>5202434285</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:27:22</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44427.76900462963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:10:17</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44427.75714120371</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
@@ -1033,10 +1035,8 @@
           <t>5201578817</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:10:48</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44427.71583333334</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1112,10 +1112,8 @@
           <t>5201690542</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:05:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44427.71186342592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1191,10 +1189,8 @@
           <t>5201578817</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:52:22</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44427.70303240741</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1262,10 +1258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-19 16:40:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44427.69496527778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1337,10 +1331,8 @@
           <t>5201059694</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:43:56</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44427.65550925926</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1412,10 +1404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:37:45</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44427.65121527778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1487,10 +1477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-19 15:04:41</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44427.62825231482</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1554,10 +1542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:55:08</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44427.62162037037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1625,10 +1611,8 @@
           <t>5200619314</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:42:57</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44427.61315972222</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1704,10 +1688,8 @@
           <t>5200505054</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:26:05</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44427.60144675926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1783,10 +1765,8 @@
           <t>5200496202</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:24:48</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44427.60055555555</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1862,10 +1842,8 @@
           <t>5200170085</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-19 14:04:01</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44427.58612268518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1929,10 +1907,8 @@
           <t>5200298994</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:59:33</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44427.58302083334</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2001,10 +1977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:46:54</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44427.57423611111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2076,10 +2050,8 @@
           <t>5200170085</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:40:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44427.57003472222</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2156,10 +2128,8 @@
           <t>5199444918</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:33:05</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44427.5646412037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2231,10 +2201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:28:25</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44427.56140046296</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2299,10 +2267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:27:19</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44427.56063657408</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2376,10 +2342,8 @@
           <t>5199957524</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:16:10</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44427.55289351852</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2455,10 +2419,8 @@
           <t>5199891698</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:08:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44427.54729166667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2526,10 +2488,8 @@
           <t>5199890055</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:07:29</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44427.54686342592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2597,10 +2557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:04:35</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44427.54484953704</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2676,10 +2634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:01:33</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44427.54274305556</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2747,10 +2703,8 @@
           <t>5199444918</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:00:08</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44427.54175925926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2814,10 +2768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:59:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44427.54144675926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2893,10 +2845,8 @@
           <t>5199802045</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:58:57</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44427.5409375</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2968,10 +2918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:58:55</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44427.54091435186</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -3039,10 +2987,8 @@
           <t>5199735767</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:51:12</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44427.53555555556</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3114,10 +3060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:51:02</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44427.53543981481</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3181,10 +3125,8 @@
           <t>5199698488</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:47:37</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44427.53306712963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3256,10 +3198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:41:33</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44427.52885416667</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3319,10 +3259,8 @@
           <t>5199444918</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:41:30</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44427.52881944444</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3393,10 +3331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:41:29</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44427.52880787037</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3456,10 +3392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:41:24</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44427.52875</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3519,10 +3453,8 @@
           <t>5199530259</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:29:05</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44427.52019675926</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3598,10 +3530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:26:26</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44427.51835648148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3669,10 +3599,8 @@
           <t>5199444918</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:25:38</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44427.51780092593</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3748,10 +3676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:21:48</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44427.51513888889</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3823,10 +3749,8 @@
           <t>5199444918</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:21:06</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44427.51465277778</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3894,10 +3818,8 @@
           <t>5199430686</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:18:45</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44427.51302083334</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3961,10 +3883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:57</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44427.51246527778</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4043,10 +3963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:17:31</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44427.51216435185</v>
       </c>
       <c r="I50" t="n">
         <v>6</v>
@@ -4110,10 +4028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:40</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44427.51018518519</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4189,10 +4105,8 @@
           <t>5199391453</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:34</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44427.51011574074</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4268,10 +4182,8 @@
           <t>5199385070</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:14:07</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44427.50980324074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4339,10 +4251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:13:53</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44427.5096412037</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4410,10 +4320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:11:43</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44427.50813657408</v>
       </c>
       <c r="I55" t="n">
         <v>42</v>
@@ -4489,10 +4397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:11:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44427.50763888889</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4568,10 +4474,8 @@
           <t>5199355936</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:10:51</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44427.50753472222</v>
       </c>
       <c r="I57" t="n">
         <v>7</v>
@@ -4643,10 +4547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:08:46</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44427.50608796296</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4710,10 +4612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:08:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44427.505625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4777,10 +4677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:08:00</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44427.50555555556</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4850,10 +4748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:50</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44427.50543981481</v>
       </c>
       <c r="I61" t="n">
         <v>10</v>
@@ -4924,10 +4820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:46</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44427.50539351852</v>
       </c>
       <c r="I62" t="n">
         <v>17</v>
@@ -4995,10 +4889,8 @@
           <t>5199318440</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44427.50521990741</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5070,10 +4962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:13</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44427.50501157407</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5149,10 +5039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:12</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44427.505</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5220,10 +5108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:10</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44427.50497685185</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5299,10 +5185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:08</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44427.5049537037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5378,10 +5262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:02</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44427.50488425926</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5457,10 +5339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:02</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44427.50488425926</v>
       </c>
       <c r="I69" t="n">
         <v>72</v>
@@ -5536,10 +5416,8 @@
           <t>5199320597</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:07:01</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44427.50487268518</v>
       </c>
       <c r="I70" t="n">
         <v>8</v>
@@ -5607,10 +5485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:52</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44427.50476851852</v>
       </c>
       <c r="I71" t="n">
         <v>13</v>
@@ -5686,10 +5562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:49</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44427.5047337963</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5761,10 +5635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:37</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44427.5045949074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5832,10 +5704,8 @@
           <t>5199314142</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:36</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44427.50458333334</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5912,10 +5782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:35</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44427.50457175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5987,10 +5855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44427.50454861111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6054,10 +5920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:19</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44427.50438657407</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6121,10 +5985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:17</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44427.50436342593</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6196,10 +6058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:16</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44427.50435185185</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6275,10 +6135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44427.50430555556</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6350,10 +6208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:06:02</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44427.50418981481</v>
       </c>
       <c r="I81" t="n">
         <v>190</v>
